--- a/MODULE 3 EXCEL ASSIGNMENT/VBA 1.xlsx
+++ b/MODULE 3 EXCEL ASSIGNMENT/VBA 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\DA\assignments\MODULE 3 EXCEL ASSIGNMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A74D094-498B-43DE-BF9A-B5D54129286E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61A79B5-B694-4300-8E80-62A7EE9FCA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8B047CCA-9E52-46EF-9396-43C579859142}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Discount</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -233,6 +230,9 @@
   </si>
   <si>
     <t>5=</t>
+  </si>
+  <si>
+    <t>DISCOUNT</t>
   </si>
 </sst>
 </file>
@@ -444,6 +444,109 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -475,12 +578,20 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -490,51 +601,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -574,72 +641,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B3773547-F326-4DE6-A75D-D52763B42375}"/>
@@ -656,17 +657,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B49BD19-84E8-49E1-BC7D-E5F2C4E53446}" name="Table1" displayName="Table1" ref="B2:H20" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B49BD19-84E8-49E1-BC7D-E5F2C4E53446}" name="Table1" displayName="Table1" ref="B2:H20" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="B2:H20" xr:uid="{3B49BD19-84E8-49E1-BC7D-E5F2C4E53446}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B471A2E4-3E17-49E5-9D01-099FC091FD24}" name="Order ID" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{AAF27BB0-1E6A-41AA-BC7B-C9DA477262F8}" name="Name" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{9A51B00F-EE09-4BBF-A8F9-6D1EDB6CD7B9}" name="Product" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{213ECB2C-133C-4D1B-930D-35FD9BDA3164}" name="Quantity" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{58AB846F-35CC-4B68-87D6-16C727749928}" name="Price" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{C578C8D4-4851-4F63-B197-75E198DB9466}" name="Total" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{A1B2301D-4AE2-4FF1-A672-EE60A22BD2DE}" name="Discount" dataDxfId="1">
-      <calculatedColumnFormula>IF(E3&gt;20,F3*E3*0.8,F3*E3)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{B471A2E4-3E17-49E5-9D01-099FC091FD24}" name="Order ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{AAF27BB0-1E6A-41AA-BC7B-C9DA477262F8}" name="Name" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{9A51B00F-EE09-4BBF-A8F9-6D1EDB6CD7B9}" name="Product" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{213ECB2C-133C-4D1B-930D-35FD9BDA3164}" name="Quantity" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{58AB846F-35CC-4B68-87D6-16C727749928}" name="Price" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{C578C8D4-4851-4F63-B197-75E198DB9466}" name="Total" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{A1B2301D-4AE2-4FF1-A672-EE60A22BD2DE}" name="DISCOUNT" dataDxfId="0">
+      <calculatedColumnFormula>IF(E3&gt;20,Table1[[#This Row],[Total]]/100*20,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -986,127 +987,127 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1120,7 +1121,7 @@
   <dimension ref="B2:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1130,7 +1131,7 @@
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.21875" style="10" customWidth="1"/>
     <col min="6" max="6" width="7" style="10" customWidth="1"/>
-    <col min="7" max="7" width="8" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" style="10" customWidth="1"/>
     <col min="8" max="8" width="10.21875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1151,10 +1152,10 @@
         <v>4</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
@@ -1162,10 +1163,10 @@
         <v>11280</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E3" s="8">
         <v>15</v>
@@ -1177,8 +1178,8 @@
         <v>450000</v>
       </c>
       <c r="H3" s="12">
-        <f>IF(E3&gt;20,F3*E3*0.8,F3*E3)</f>
-        <v>450000</v>
+        <f>IF(E3&gt;20,Table1[[#This Row],[Total]]/100*20,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -1186,10 +1187,10 @@
         <v>11281</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E4" s="8">
         <v>10</v>
@@ -1201,8 +1202,8 @@
         <v>250000</v>
       </c>
       <c r="H4" s="12">
-        <f t="shared" ref="H4:H20" si="0">IF(E4&gt;20,F4*E4*0.8,F4*E4)</f>
-        <v>250000</v>
+        <f>IF(E4&gt;20,Table1[[#This Row],[Total]]/100*20,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -1210,10 +1211,10 @@
         <v>11282</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E5" s="8">
         <v>150</v>
@@ -1225,8 +1226,8 @@
         <v>4200000</v>
       </c>
       <c r="H5" s="12">
-        <f t="shared" si="0"/>
-        <v>3360000</v>
+        <f>IF(E5&gt;20,Table1[[#This Row],[Total]]/100*20,0)</f>
+        <v>840000</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -1234,10 +1235,10 @@
         <v>11283</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E6" s="8">
         <v>12</v>
@@ -1249,8 +1250,8 @@
         <v>360000</v>
       </c>
       <c r="H6" s="12">
-        <f t="shared" si="0"/>
-        <v>360000</v>
+        <f>IF(E6&gt;20,Table1[[#This Row],[Total]]/100*20,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -1258,10 +1259,10 @@
         <v>11284</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E7" s="8">
         <v>20</v>
@@ -1273,8 +1274,8 @@
         <v>600000</v>
       </c>
       <c r="H7" s="12">
-        <f t="shared" si="0"/>
-        <v>600000</v>
+        <f>IF(E7&gt;20,Table1[[#This Row],[Total]]/100*20,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -1282,10 +1283,10 @@
         <v>11285</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E8" s="8">
         <v>20</v>
@@ -1297,8 +1298,8 @@
         <v>520000</v>
       </c>
       <c r="H8" s="12">
-        <f t="shared" si="0"/>
-        <v>520000</v>
+        <f>IF(E8&gt;20,Table1[[#This Row],[Total]]/100*20,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -1306,10 +1307,10 @@
         <v>11286</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E9" s="8">
         <v>2</v>
@@ -1321,8 +1322,8 @@
         <v>60000</v>
       </c>
       <c r="H9" s="12">
-        <f t="shared" si="0"/>
-        <v>60000</v>
+        <f>IF(E9&gt;20,Table1[[#This Row],[Total]]/100*20,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
@@ -1330,10 +1331,10 @@
         <v>11287</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E10" s="8">
         <v>5</v>
@@ -1345,8 +1346,8 @@
         <v>175000</v>
       </c>
       <c r="H10" s="12">
-        <f t="shared" si="0"/>
-        <v>175000</v>
+        <f>IF(E10&gt;20,Table1[[#This Row],[Total]]/100*20,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -1354,10 +1355,10 @@
         <v>11288</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E11" s="8">
         <v>80</v>
@@ -1369,8 +1370,8 @@
         <v>2400000</v>
       </c>
       <c r="H11" s="12">
-        <f t="shared" si="0"/>
-        <v>1920000</v>
+        <f>IF(E11&gt;20,Table1[[#This Row],[Total]]/100*20,0)</f>
+        <v>480000</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1378,10 +1379,10 @@
         <v>11289</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E12" s="8">
         <v>100</v>
@@ -1393,8 +1394,8 @@
         <v>2600000</v>
       </c>
       <c r="H12" s="12">
-        <f t="shared" si="0"/>
-        <v>2080000</v>
+        <f>IF(E12&gt;20,Table1[[#This Row],[Total]]/100*20,0)</f>
+        <v>520000</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
@@ -1402,10 +1403,10 @@
         <v>11290</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E13" s="8">
         <v>20</v>
@@ -1417,8 +1418,8 @@
         <v>700000</v>
       </c>
       <c r="H13" s="12">
-        <f t="shared" si="0"/>
-        <v>700000</v>
+        <f>IF(E13&gt;20,Table1[[#This Row],[Total]]/100*20,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
@@ -1426,10 +1427,10 @@
         <v>11291</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E14" s="8">
         <v>25</v>
@@ -1441,8 +1442,8 @@
         <v>1000000</v>
       </c>
       <c r="H14" s="12">
-        <f t="shared" si="0"/>
-        <v>800000</v>
+        <f>IF(E14&gt;20,Table1[[#This Row],[Total]]/100*20,0)</f>
+        <v>200000</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -1450,10 +1451,10 @@
         <v>11292</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="8">
         <v>10</v>
@@ -1465,8 +1466,8 @@
         <v>280000</v>
       </c>
       <c r="H15" s="12">
-        <f t="shared" si="0"/>
-        <v>280000</v>
+        <f>IF(E15&gt;20,Table1[[#This Row],[Total]]/100*20,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
@@ -1474,10 +1475,10 @@
         <v>11293</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="8">
         <v>10</v>
@@ -1489,8 +1490,8 @@
         <v>300000</v>
       </c>
       <c r="H16" s="12">
-        <f t="shared" si="0"/>
-        <v>300000</v>
+        <f>IF(E16&gt;20,Table1[[#This Row],[Total]]/100*20,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -1498,10 +1499,10 @@
         <v>11294</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="8">
         <v>5</v>
@@ -1513,8 +1514,8 @@
         <v>150000</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" si="0"/>
-        <v>150000</v>
+        <f>IF(E17&gt;20,Table1[[#This Row],[Total]]/100*20,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
@@ -1522,10 +1523,10 @@
         <v>11295</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="8">
         <v>180</v>
@@ -1537,8 +1538,8 @@
         <v>4680000</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" si="0"/>
-        <v>3744000</v>
+        <f>IF(E18&gt;20,Table1[[#This Row],[Total]]/100*20,0)</f>
+        <v>936000</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
@@ -1546,10 +1547,10 @@
         <v>11296</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="8">
         <v>5</v>
@@ -1561,8 +1562,8 @@
         <v>150000</v>
       </c>
       <c r="H19" s="12">
-        <f t="shared" si="0"/>
-        <v>150000</v>
+        <f>IF(E19&gt;20,Table1[[#This Row],[Total]]/100*20,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
@@ -1570,10 +1571,10 @@
         <v>11297</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="9">
         <v>250</v>
@@ -1585,8 +1586,8 @@
         <v>8750000</v>
       </c>
       <c r="H20" s="13">
-        <f t="shared" si="0"/>
-        <v>7000000</v>
+        <f>IF(E20&gt;20,Table1[[#This Row],[Total]]/100*20,0)</f>
+        <v>1750000</v>
       </c>
     </row>
   </sheetData>
